--- a/21-Spreads4Tests/QuadrupoleTriplet.xlsx
+++ b/21-Spreads4Tests/QuadrupoleTriplet.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45E285-A38D-8E49-B0B0-E86865E842CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F10A988-A484-ED49-BFB3-993C6F61D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="32400" activeTab="1" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="68">
   <si>
     <t>p</t>
   </si>
@@ -56,12 +79,6 @@
     <t>Particle</t>
   </si>
   <si>
-    <t>Quad</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -69,9 +86,6 @@
   </si>
   <si>
     <t>T/m</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
   <si>
     <r>
@@ -88,9 +102,6 @@
     </r>
   </si>
   <si>
-    <t>sqrt(k)</t>
-  </si>
-  <si>
     <r>
       <t>m</t>
     </r>
@@ -105,9 +116,6 @@
     </r>
   </si>
   <si>
-    <t>l*sqrt(k)</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -127,9 +135,6 @@
   </si>
   <si>
     <t>s/m</t>
-  </si>
-  <si>
-    <t>1/c*10^9</t>
   </si>
   <si>
     <t>K</t>
@@ -166,26 +171,490 @@
     <t>Focusing strength</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Triplet</t>
-  </si>
-  <si>
     <t>Gap</t>
   </si>
   <si>
     <t>f*</t>
   </si>
   <si>
-    <t>f-1</t>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sqrt(k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sqrt(k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Fquad</t>
+  </si>
+  <si>
+    <t>Dquad</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*sqrt(k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*sqrt(k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1/c*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f*</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <t>FD doublet</t>
+  </si>
+  <si>
+    <t>DF doublet</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Reference particle</t>
+  </si>
+  <si>
+    <t>Quadrupole</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <t>kFQ</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>Derived parameters</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>sqrt(k/D)</t>
+  </si>
+  <si>
+    <t>1/c*10^9</t>
+  </si>
+  <si>
+    <t>l*sqrt(k/D)</t>
+  </si>
+  <si>
+    <t>D*sqrt(k/D)</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Focus quad</t>
+  </si>
+  <si>
+    <t>Drift</t>
+  </si>
+  <si>
+    <t>D*FQ</t>
+  </si>
+  <si>
+    <t>DQ*D*FQ</t>
+  </si>
+  <si>
+    <t>Defocus quad</t>
+  </si>
+  <si>
+    <t>D*DQ*D*FQ</t>
+  </si>
+  <si>
+    <t>FQ*D*DQ*D*FQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,8 +691,52 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +749,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -364,141 +883,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -542,16 +926,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,24 +991,64 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,8 +1058,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,9 +1106,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -658,7 +1146,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -764,7 +1252,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -906,7 +1394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -914,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210C9CAF-347D-914C-A112-6F8981E6D7C0}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,346 +1413,2645 @@
     <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="11">
+        <v>938.27208815999995</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>0.03</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="H2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="12">
-        <v>938.27208815999995</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>0.03</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>299792458</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>325</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>325</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <f>1/L3</f>
+        <v>3.3356409519815204E-9</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <f>SQRT( (L2+B3)^2 - L2^2)</f>
+        <v>150.5407921987921</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="I5" s="6"/>
+      <c r="K5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="8">
+        <f>L4*1000000000</f>
+        <v>3.3356409519815204</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <f>L5*B5/1000</f>
+        <v>0.50215003140203107</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="12">
-        <v>299792458</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="27"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <f>1/I3</f>
-        <v>3.3356409519815204E-9</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <f>SQRT( (I2+B3)^2 - I2^2)</f>
-        <v>194.75852619692921</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="F5" s="7"/>
-      <c r="H5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="9">
-        <f>I4*1000000000</f>
-        <v>3.3356409519815204</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9">
-        <f>I5*B5/1000</f>
-        <v>0.64964451573004278</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E6">
         <f>E4/B6</f>
-        <v>769.65169087608069</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>647.21692656790594</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <f>H4/B6</f>
+        <v>647.21692656790594</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <f>SQRT(E6)</f>
+        <v>25.44045845828856</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <f>SQRT(H6)</f>
+        <v>25.44045845828856</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <f>E7*E3</f>
+        <v>0.76321375374865674</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <f>H3*H7</f>
+        <v>0.76321375374865674</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <f>E6*E3</f>
+        <v>19.416507797037177</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10">
+        <f>H6*H3</f>
+        <v>19.416507797037177</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <f>1/E10</f>
+        <v>5.1502567323285238E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <f>1/H10</f>
+        <v>5.1502567323285238E-2</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D12" s="18"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="D14" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D15" s="10"/>
+      <c r="E15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="46">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <f>E10-H10+F15*(E10*H10)</f>
+        <v>1.8850038751620275</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <f>-E10+H10+F15*(E10*H10)</f>
+        <v>1.8850038751620275</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="8">
+        <f>1/E16</f>
+        <v>0.5305028881779057</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="8">
+        <f>1/H16</f>
+        <v>0.5305028881779057</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <f>1+($F$15/$E$11)</f>
+        <v>1.0970825389851859</v>
+      </c>
+      <c r="C19" s="11">
+        <f>$F$15</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="12">
+        <f>-$E$16</f>
+        <v>-1.8850038751620275</v>
+      </c>
+      <c r="C20">
+        <f>1+($F$15/$H$11)</f>
+        <v>1.0970825389851859</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>1-($F$15/$E$11)</f>
+        <v>0.90291746101481407</v>
+      </c>
+      <c r="E21" s="6">
+        <f>$F$15</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="18">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <f>-$H$16</f>
+        <v>-1.8850038751620275</v>
+      </c>
+      <c r="E22" s="9">
+        <f>1-($F$15/$H$11)</f>
+        <v>0.90291746101481407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="D7" s="6" t="s">
+      <c r="E24" s="14">
+        <f t="array" ref="E24:E27">MMULT(B19:E22,B24:B27)</f>
+        <v>0.54904126949259291</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="31">
-        <f>SQRT(E6)</f>
-        <v>27.742597046348791</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="H24" s="14">
+        <f>B$24*B19+B$25*C19+B$26*D19+B$27*E19</f>
+        <v>0.54904126949259291</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="20">
+        <f>E24-H24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>-0.83279368368249518</v>
+      </c>
+      <c r="H25" s="15">
+        <f>B$24*B20+B$25*C20+B$26*D20+B$27*E20</f>
+        <v>-0.83279368368249518</v>
+      </c>
+      <c r="K25" s="21">
+        <f t="shared" ref="K25:K27" si="0">E25-H25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="15">
+        <v>-0.3</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-0.27187523830444421</v>
+      </c>
+      <c r="H26" s="15">
+        <f>B$24*B21+B$25*C21+B$26*D21+B$27*E21</f>
+        <v>-0.27187523830444421</v>
+      </c>
+      <c r="K26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="16">
+        <v>-0.2</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.38491767034564545</v>
+      </c>
+      <c r="H27" s="16">
+        <f>B$24*B22+B$25*C22+B$26*D22+B$27*E22</f>
+        <v>0.38491767034564545</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="F15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE99AEC-43F2-8D45-B0B0-4BCF34C0588E}">
+  <dimension ref="A1:AQ48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AF61" sqref="AF61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="21" x14ac:dyDescent="0.25">
+      <c r="E1" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45"/>
+      <c r="U1" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="45"/>
+      <c r="AC1" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="45"/>
+      <c r="AK1" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="45"/>
+    </row>
+    <row r="2" spans="1:43" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11">
+        <v>938.27208815999995</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="M2" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="U2" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="51"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="36"/>
+      <c r="AC2" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="36"/>
+      <c r="AK2" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP2" s="36"/>
+    </row>
+    <row r="3" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="6" t="s">
+      <c r="B3" s="11">
+        <v>299792458</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="31">
-        <f>E7*E3</f>
-        <v>2.7742597046348791</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D9" s="6"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="31">
-        <f>E6*E3</f>
-        <v>76.965169087608075</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="31">
-        <f>1/E10</f>
-        <v>1.2992890314600854E-2</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="25">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="25">
+        <f>F3</f>
+        <v>20</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="25">
+        <f>F3</f>
+        <v>20</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3">
+        <v>0.2</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="25">
+        <f>V3</f>
+        <v>20</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="25">
+        <f>AD3</f>
+        <v>20</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3">
+        <v>0.1</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <f>1/B3</f>
+        <v>3.3356409519815204E-9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="25">
+        <f>B2+F3</f>
+        <v>958.27208815999995</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" s="32"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="D14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="M4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="25">
+        <f t="shared" ref="N4:N8" si="0">F4</f>
+        <v>958.27208815999995</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="30"/>
+      <c r="R4" s="6"/>
+      <c r="U4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="25">
+        <f t="shared" ref="V4:V8" si="1">F4</f>
+        <v>958.27208815999995</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4">
+        <v>500</v>
+      </c>
+      <c r="Z4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="9">
-        <f>E11^2/E15</f>
-        <v>3.3763039745449738E-2</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="AC4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4" s="25">
+        <f t="shared" ref="AD4:AD8" si="2">V4</f>
+        <v>958.27208815999995</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="30"/>
+      <c r="AH4" s="6"/>
+      <c r="AK4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL4" s="25">
+        <f t="shared" ref="AL4:AL8" si="3">AD4</f>
+        <v>958.27208815999995</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO4">
+        <v>500</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="8">
+        <f>B4*1000000000</f>
+        <v>3.3356409519815204</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="25">
+        <f>SQRT(F4^2 -B2^ 2)</f>
+        <v>194.75852619692921</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="9"/>
+      <c r="M5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="25">
+        <f t="shared" si="0"/>
+        <v>194.75852619692921</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="9"/>
+      <c r="U5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="25">
+        <f t="shared" si="1"/>
+        <v>194.75852619692921</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="9"/>
+      <c r="AC5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="25">
+        <f>V5</f>
+        <v>194.75852619692921</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="9"/>
+      <c r="AK5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" s="25">
+        <f t="shared" si="3"/>
+        <v>194.75852619692921</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="9"/>
+    </row>
+    <row r="6" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+      <c r="E6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <f>F5/B2</f>
+        <v>0.20757148022900346</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f>F12*B5/1000</f>
+        <v>1.6137238800416533</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="M6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="25">
+        <f t="shared" si="0"/>
+        <v>0.20757148022900346</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="U6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="25">
+        <f t="shared" si="1"/>
+        <v>0.20757148022900346</v>
+      </c>
+      <c r="W6" s="6"/>
+      <c r="X6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <f>V12*B5/1000</f>
+        <v>1.6137238800416533</v>
+      </c>
+      <c r="Z6" s="6"/>
+      <c r="AC6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="25">
+        <f t="shared" si="2"/>
+        <v>0.20757148022900346</v>
+      </c>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AK6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL6" s="25">
+        <f t="shared" si="3"/>
+        <v>0.20757148022900346</v>
+      </c>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO6">
+        <f>AL12*B5/1000</f>
+        <v>1.6137238800416533</v>
+      </c>
+      <c r="AP6" s="6"/>
+    </row>
+    <row r="7" spans="1:43" ht="20" x14ac:dyDescent="0.25">
+      <c r="E7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <f>F5/F4</f>
+        <v>0.20323927682260837</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <f>I4/I6</f>
+        <v>309.84235046896254</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.20323927682260837</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="39"/>
+      <c r="U7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="25">
+        <f t="shared" si="1"/>
+        <v>0.20323927682260837</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7">
+        <f>Y4/Y6</f>
+        <v>309.84235046896254</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD7" s="25">
+        <f t="shared" si="2"/>
+        <v>0.20323927682260837</v>
+      </c>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="39"/>
+      <c r="AK7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL7" s="25">
+        <f t="shared" si="3"/>
+        <v>0.20323927682260837</v>
+      </c>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO7">
+        <f>AO4/AO6</f>
+        <v>309.84235046896254</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="E8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="M8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="30"/>
+      <c r="U8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="9"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="9"/>
+      <c r="AC8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD8" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="30"/>
+      <c r="AK8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL8" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="9"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="E10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="M10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="1"/>
+      <c r="U10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="55"/>
+      <c r="AC10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="1"/>
+      <c r="AK10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="55"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="E11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <f>F4+F5*T45</f>
+        <v>1055.6513512584645</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="M11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11">
+        <f>F11</f>
+        <v>1055.6513512584645</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="1"/>
+      <c r="U11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11">
+        <f>F11</f>
+        <v>1055.6513512584645</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="6"/>
+      <c r="AC11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD11">
+        <f>V11</f>
+        <v>1055.6513512584645</v>
+      </c>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="1"/>
+      <c r="AK11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL11">
+        <f>AL4+AL5*T45</f>
+        <v>1055.6513512584645</v>
+      </c>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="6"/>
+    </row>
+    <row r="12" spans="1:43" ht="19" x14ac:dyDescent="0.2">
+      <c r="E12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <f>SQRT(F11^2 -B2^ 2)</f>
+        <v>483.78224853098436</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12">
+        <f>SQRT(I7/I11)</f>
+        <v>17.60233934648922</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <f>F12</f>
+        <v>483.78224853098436</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="1"/>
+      <c r="U12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>F12</f>
+        <v>483.78224853098436</v>
+      </c>
+      <c r="W12" s="6"/>
+      <c r="X12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12">
+        <f>SQRT(Y7/Y11)</f>
+        <v>17.60233934648922</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="8">
+        <f>V12</f>
+        <v>483.78224853098436</v>
+      </c>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="1"/>
+      <c r="AK12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="25">
+        <f>SQRT(AL11^2 -B2^ 2)</f>
+        <v>483.78224853098436</v>
+      </c>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO12">
+        <f>SQRT(AO7/AO11)</f>
+        <v>17.60233934648922</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="E13" s="31"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13">
+        <f>I12*I3</f>
+        <v>1.7602339346489222</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="M13" s="41"/>
+      <c r="P13" s="1"/>
+      <c r="U13" s="31"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y13">
+        <f>Y12*Y3</f>
+        <v>3.5204678692978444</v>
+      </c>
+      <c r="Z13" s="6"/>
+      <c r="AC13" s="41"/>
+      <c r="AF13" s="1"/>
+      <c r="AK13" s="31"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO13">
+        <f>AO12*AO3</f>
+        <v>1.7602339346489222</v>
+      </c>
+      <c r="AP13" s="6"/>
+    </row>
+    <row r="14" spans="1:43" ht="19" x14ac:dyDescent="0.2">
+      <c r="E14" s="32"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="8">
+        <f>I12*I11</f>
+        <v>17.60233934648922</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="P14" s="1"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y14" s="8">
+        <f>Y12*Y11</f>
+        <v>17.60233934648922</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="41"/>
+      <c r="AF14" s="1"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO14" s="8">
+        <f>AO12*AO11</f>
+        <v>17.60233934648922</v>
+      </c>
+      <c r="AP14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M15" s="13"/>
+      <c r="P15" s="1"/>
+      <c r="AC15" s="13"/>
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="M17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="E18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14">
-        <f>1-(2*$E$15^2/$E$11^2)</f>
-        <v>0.7038181373657949</v>
-      </c>
-      <c r="C18" s="15">
-        <f>2*$E$3*(1+($E$3/$E$11))</f>
-        <v>1.7393033817521617</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="17">
-        <f>1/$E$16</f>
-        <v>29.618186263420505</v>
-      </c>
-      <c r="C19" s="18">
-        <f>1-(2*$E$15^2/$E$11^2)</f>
-        <v>0.7038181373657949</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="17">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0</v>
-      </c>
-      <c r="D20" s="18">
-        <f>1-(2*$E$15^2/$E$11^2)</f>
-        <v>0.7038181373657949</v>
-      </c>
-      <c r="E20" s="19">
-        <f>2*$E$3*(1+($E$3/$E$11))</f>
-        <v>1.7393033817521617</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
-        <v>0</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="21">
-        <f>1/$E$16</f>
-        <v>29.618186263420505</v>
-      </c>
-      <c r="E21" s="22">
-        <f>1-(2*$E$15^2/$E$11^2)</f>
-        <v>0.7038181373657949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="24">
+      <c r="F18" s="2">
+        <f>COS(I13)</f>
+        <v>-0.18830659366985952</v>
+      </c>
+      <c r="G18" s="4">
+        <f>SIN(I13)/I14</f>
+        <v>5.5794305134233245E-2</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <f>COS(Q5)</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="4">
+        <f>Q3</f>
+        <v>0.01</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <f>N14*(1-COS(Q5))/N7</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="2">
+        <f>COSH(Y13)</f>
+        <v>16.914912224361977</v>
+      </c>
+      <c r="W18" s="4">
+        <f>SINH(Y13)/Y14</f>
+        <v>0.95926605562172773</v>
+      </c>
+      <c r="X18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="2">
+        <f>COS(AG5)</f>
+        <v>1</v>
+      </c>
+      <c r="AE18" s="4">
+        <f>AG3</f>
+        <v>0.01</v>
+      </c>
+      <c r="AF18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="20">
+        <f>AD14*(1-COS(AG5))/AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="2">
+        <f>COS(AO13)</f>
+        <v>-0.18830659366985952</v>
+      </c>
+      <c r="AM18" s="4">
+        <f>SIN(AO13)/AO14</f>
+        <v>5.5794305134233245E-2</v>
+      </c>
+      <c r="AN18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="18">
+        <f>-SIN(I13)*I14</f>
+        <v>-17.287438645573335</v>
+      </c>
+      <c r="G19" s="9">
+        <f>COS(I13)</f>
+        <v>-0.18830659366985952</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <f>COS(Q5)</f>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21">
+        <f>SIN(Q5)/N7</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="18">
+        <f>SINH(Y13)*Y14</f>
+        <v>297.22124939892666</v>
+      </c>
+      <c r="W19" s="9">
+        <f>COSH(Y13)</f>
+        <v>16.914912224361977</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="9">
+        <f>COS(AG5)</f>
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="21">
+        <f>SIN(AG5)/AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="18">
+        <f>-SIN(AO13)*AO14</f>
+        <v>-17.287438645573335</v>
+      </c>
+      <c r="AM19" s="9">
+        <f>COS(AO13)</f>
+        <v>-0.18830659366985952</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <f>COSH(I13)</f>
+        <v>2.9929009526178763</v>
+      </c>
+      <c r="I20" s="4">
+        <f>SINH(I13)/I14</f>
+        <v>0.16025689971174331</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>Q3</f>
+        <v>0.01</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="12">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <f>COS(Y13)</f>
+        <v>-0.92908125356090887</v>
+      </c>
+      <c r="Y20" s="4">
+        <f>SIN(Y13)/Y14</f>
+        <v>-2.1012871092008431E-2</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="4">
+        <f>AG3</f>
+        <v>0.01</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="2">
+        <f>COSH(AO13)</f>
+        <v>2.9929009526178763</v>
+      </c>
+      <c r="AO20" s="4">
+        <f>SINH(AO13)/AO14</f>
+        <v>0.16025689971174331</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <f>SINH(I13)*I14</f>
+        <v>49.654374485555351</v>
+      </c>
+      <c r="I21" s="9">
+        <f>COSH(I13)</f>
+        <v>2.9929009526178763</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="12">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="18">
+        <f>-SIN(Y13)*Y14</f>
+        <v>6.5106773692492084</v>
+      </c>
+      <c r="Y21" s="9">
+        <f>COS(Y13)</f>
+        <v>-0.92908125356090887</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="18">
+        <f>SINH(AO13)*AO14</f>
+        <v>49.654374485555351</v>
+      </c>
+      <c r="AO21" s="9">
+        <f>COSH(AO13)</f>
+        <v>2.9929009526178763</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f>I3/F6^2</f>
+        <v>2.3209438578128516</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="12">
+        <f>-SIN(Q5)/N7</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>-(N14/N7)*(1-COS(Q5))</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" s="20">
+        <v>1</v>
+      </c>
+      <c r="S22" s="20">
+        <f>Q3/N6^2</f>
+        <v>0.23209438578128516</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="12">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="4">
+        <f>Y3/V6^2</f>
+        <v>4.6418877156257032</v>
+      </c>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="12">
+        <f>-SIN(AG5)/AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f>-(AD14/AD7)*(1-COS(AG5))</f>
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="20">
+        <f>AG3/AD6^2</f>
+        <v>0.23209438578128516</v>
+      </c>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="4">
+        <f>AO3/AL6^2</f>
+        <v>2.3209438578128516</v>
+      </c>
+    </row>
+    <row r="23" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="18">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="22">
+        <v>0</v>
+      </c>
+      <c r="S23" s="22">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="18">
+        <v>0</v>
+      </c>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="27" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="AH27" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="49"/>
+    </row>
+    <row r="28" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="AA28" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="49"/>
+      <c r="AH28" s="2" cm="1">
+        <f t="array" ref="AH28:AM33">MMULT(AD18:AI23,AL18:AQ23)</f>
+        <v>-0.36118098012559285</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>5.3911239197534648E-2</v>
+      </c>
+      <c r="AJ28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="T29" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="49"/>
+      <c r="AA29" s="2" cm="1">
+        <f t="array" ref="AA29:AF34">MMULT(V18:AA23,AH28:AM33)</f>
+        <v>-22.692597657275186</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>0.73126775557563184</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="18">
+        <v>-17.287438645573335</v>
+      </c>
+      <c r="AI29" s="9">
+        <v>-0.18830659366985952</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="M30" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="49"/>
+      <c r="T30" s="2" cm="1">
+        <f t="array" ref="T30:Y35">MMULT(N18:S23,AA29:AF34)</f>
+        <v>-26.690259351734923</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0.8596515192530455</v>
+      </c>
+      <c r="V30" s="11">
+        <v>0</v>
+      </c>
+      <c r="W30" s="11">
+        <v>0</v>
+      </c>
+      <c r="X30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="18">
+        <v>-399.76616944597367</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>12.838376367741368</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>3.4894446974734299</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>0.19018590923792209</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="M31" s="2" cm="1">
+        <f t="array" ref="M31:R36">MMULT(F18:K23,T30:Y35)</f>
+        <v>-17.278723817721929</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.55443023915623035</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="18">
+        <v>-399.76616944597367</v>
+      </c>
+      <c r="U31" s="9">
+        <v>12.838376367741368</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>-4.2853586239793682</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>-0.23958760487289854</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="18">
+        <v>49.654374485555351</v>
+      </c>
+      <c r="AK31" s="9">
+        <v>2.9929009526178763</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="M32" s="18">
+        <v>536.6848266103766</v>
+      </c>
+      <c r="N32" s="9">
+        <v>-17.278723817721929</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0</v>
+      </c>
+      <c r="T32" s="12">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>-4.5195016226667253</v>
+      </c>
+      <c r="W32" s="4">
+        <v>-0.25501169560906284</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="18">
+        <v>-23.414299868735664</v>
+      </c>
+      <c r="AD32" s="9">
+        <v>-1.5424090736164318</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>2.5530382435941368</v>
+      </c>
+    </row>
+    <row r="33" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="M33" s="12">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>-17.278723817721936</v>
+      </c>
+      <c r="P33" s="4">
+        <v>-1.0104064429420956</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="T33" s="12">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33" s="18">
+        <v>-23.414299868735664</v>
+      </c>
+      <c r="W33" s="9">
+        <v>-1.5424090736164318</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>7.19492595921984</v>
+      </c>
+      <c r="AH33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="M34" s="12">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="18">
+        <v>-294.48970644198823</v>
+      </c>
+      <c r="P34" s="9">
+        <v>-17.278723817721932</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="T34" s="12">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>7.4270203450011252</v>
+      </c>
+      <c r="AA34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="M35" s="12">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="4">
+        <v>9.7479642028139768</v>
+      </c>
+      <c r="T35" s="18">
+        <v>0</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0</v>
+      </c>
+      <c r="X35" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="M36" s="18">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="S40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T40" s="20">
         <v>0.5</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="24">
-        <f t="array" ref="E23:E26">MMULT(B18:E21,B23:B26)</f>
-        <v>0.52583940685811359</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="24">
-        <f>B$23*B18+B$24*C18+B$25*D18+B$26*E18</f>
-        <v>0.52583940685811359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="25">
+      <c r="U40" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="V40" s="20">
+        <f t="array" ref="V40:V45">MMULT(M31:R36,T40:T45)</f>
+        <v>-8.5839188849453407</v>
+      </c>
+      <c r="W40" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="X40" s="20">
+        <f>T$40*M31+T$41*N31+T$42*O31+T$43*P31+T$44*Q31+T$45*R31</f>
+        <v>-8.5839188849453407</v>
+      </c>
+      <c r="Y40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z40" s="20">
+        <f t="shared" ref="Z40:Z45" si="4">V40-X40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="S41" s="1"/>
+      <c r="T41" s="21">
         <v>0.1</v>
       </c>
-      <c r="E24" s="25">
-        <v>14.879474945446832</v>
-      </c>
-      <c r="H24" s="25">
-        <f>B$23*B19+B$24*C19+B$25*D19+B$26*E19</f>
-        <v>14.879474945446832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="25">
+      <c r="V41" s="21">
+        <v>266.61454092341609</v>
+      </c>
+      <c r="X41" s="21">
+        <f t="shared" ref="X41:X45" si="5">T$40*M32+T$41*N32+T$42*O32+T$43*P32+T$44*Q32+T$45*R32</f>
+        <v>266.61454092341609</v>
+      </c>
+      <c r="Z41" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="S42" s="1"/>
+      <c r="T42" s="21">
         <v>-0.3</v>
       </c>
-      <c r="E25" s="25">
-        <v>-0.55900611756017082</v>
-      </c>
-      <c r="H25" s="25">
-        <f>B$23*B20+B$24*C20+B$25*D20+B$26*E20</f>
-        <v>-0.55900611756017082</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="26">
+      <c r="V42" s="21">
+        <v>5.3856984339050005</v>
+      </c>
+      <c r="X42" s="21">
+        <f t="shared" si="5"/>
+        <v>5.3856984339050005</v>
+      </c>
+      <c r="Z42" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="S43" s="1"/>
+      <c r="T43" s="21">
         <v>-0.2</v>
       </c>
-      <c r="E26" s="26">
-        <v>-9.0262195064993112</v>
-      </c>
-      <c r="H26" s="26">
-        <f>B$23*B21+B$24*C21+B$25*D21+B$26*E21</f>
-        <v>-9.0262195064993112</v>
-      </c>
+      <c r="V43" s="21">
+        <v>91.802656696140858</v>
+      </c>
+      <c r="X43" s="21">
+        <f t="shared" si="5"/>
+        <v>91.802656696140858</v>
+      </c>
+      <c r="Z43" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="T44" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="V44" s="21">
+        <v>4.973982101406988</v>
+      </c>
+      <c r="X44" s="21">
+        <f t="shared" si="5"/>
+        <v>4.973982101406988</v>
+      </c>
+      <c r="Z44" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="T45" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="V45" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="X45" s="22">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z45" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="48" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="E48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D14:F14"/>
+  <mergeCells count="22">
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AA28:AF28"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="U10:W10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/21-Spreads4Tests/QuadrupoleTriplet.xlsx
+++ b/21-Spreads4Tests/QuadrupoleTriplet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F10A988-A484-ED49-BFB3-993C6F61D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7B6397-85E8-2443-AC2E-E4CF50709287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="32400" activeTab="1" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" activeTab="1" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE99AEC-43F2-8D45-B0B0-4BCF34C0588E}">
   <dimension ref="A1:AQ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AF61" sqref="AF61"/>
+    <sheetView tabSelected="1" topLeftCell="R14" workbookViewId="0">
+      <selection activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3422,6 +3422,20 @@
     <row r="24" spans="5:43" x14ac:dyDescent="0.2">
       <c r="U24" s="1"/>
     </row>
+    <row r="25" spans="5:43" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f>1/F19</f>
+        <v>-5.7845469216231321E-2</v>
+      </c>
+      <c r="V25">
+        <f>1/V19</f>
+        <v>3.3644969934764402E-3</v>
+      </c>
+      <c r="AL25">
+        <f>1/AL19</f>
+        <v>-5.7845469216231321E-2</v>
+      </c>
+    </row>
     <row r="27" spans="5:43" x14ac:dyDescent="0.2">
       <c r="AH27" s="47" t="s">
         <v>63</v>
@@ -4030,6 +4044,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M1:S1"/>
     <mergeCell ref="AH27:AM27"/>
     <mergeCell ref="AA28:AF28"/>
     <mergeCell ref="T29:Y29"/>
@@ -4043,13 +4064,6 @@
     <mergeCell ref="AN10:AP10"/>
     <mergeCell ref="X10:Z10"/>
     <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M1:S1"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="U10:W10"/>
   </mergeCells>
